--- a/excel/assignments/Assignment6_Workbook.xlsx
+++ b/excel/assignments/Assignment6_Workbook.xlsx
@@ -22,76 +22,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
-    <t>June Budget</t>
-  </si>
-  <si>
-    <t>July Budget</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Price Per Unit</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Napkins (box of 250)</t>
-  </si>
-  <si>
-    <t>Plastic Silverware (box of 100)</t>
-  </si>
-  <si>
-    <t>Budget Total</t>
-  </si>
-  <si>
-    <t>Inventory Cost</t>
-  </si>
-  <si>
-    <t>Total Remaining</t>
-  </si>
-  <si>
-    <t>Total Budget</t>
-  </si>
-  <si>
-    <t>Paper Plates (box of 50)</t>
-  </si>
-  <si>
-    <t>Paper Supply Inventory Orders</t>
-  </si>
-  <si>
-    <t>Cups (box of 75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  Summer Budget and Paper Inventory</t>
-  </si>
-  <si>
-    <t>Catering Invoice</t>
-  </si>
-  <si>
-    <t>Menu Item</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Tamales: Carnitas</t>
   </si>
   <si>
-    <t>Tamales: Vegetable</t>
-  </si>
-  <si>
-    <t>Empanadas: Nutella &amp; Banana</t>
-  </si>
-  <si>
     <t>Tax</t>
+  </si>
+  <si>
+    <t>Juni Budget</t>
+  </si>
+  <si>
+    <t>Juli Budget</t>
+  </si>
+  <si>
+    <t>Gesamtbudget</t>
+  </si>
+  <si>
+    <t>Lagerkosten</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Einzelpreis</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Papierteller (50er Pack)</t>
+  </si>
+  <si>
+    <t>Plastikbesteck (100er Pack)</t>
+  </si>
+  <si>
+    <t>Vorratshaltung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  Sommer Budget und Lagerbestand</t>
+  </si>
+  <si>
+    <t>Tassen (75er Pack)</t>
+  </si>
+  <si>
+    <t>Catering Rechnung</t>
+  </si>
+  <si>
+    <t>Menu Artikel</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Tamales: Gemüse</t>
+  </si>
+  <si>
+    <t>Empanadas: Nutella &amp; Bananen</t>
+  </si>
+  <si>
+    <t>Servietten (250er Pack)</t>
   </si>
 </sst>
 </file>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -314,30 +314,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,17 +367,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -382,24 +376,35 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="2" builtinId="4"/>
     <cellStyle name="Währung 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,7 +790,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,144 +800,146 @@
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="B2" s="29">
         <v>2000</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="30">
         <v>2200</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>5</v>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="34">
         <v>8.75</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="33">
         <f>E4*F4</f>
         <v>131.25</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5" s="32"/>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7">
         <v>18</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="34">
         <v>2.59</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="32"/>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="34">
         <v>14.25</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29">
         <v>4000</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="34">
         <v>11.99</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30">
         <v>450</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33">
         <f>B7/B8</f>
         <v>8.8888888888888893</v>
       </c>
@@ -955,7 +962,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,41 +975,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>2</v>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39">
         <v>2.29</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="35">
         <f>B3*C3</f>
         <v>45.8</v>
       </c>
@@ -1011,13 +1018,13 @@
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="40">
         <v>2.29</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="36">
         <f>B4*C4</f>
         <v>68.7</v>
       </c>
@@ -1026,32 +1033,32 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="39">
         <v>3.99</v>
       </c>
       <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="35">
         <f>B5*C5</f>
         <v>159.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
